--- a/ICTAKteckBlog/src/main/resources/testdata.xlsx
+++ b/ICTAKteckBlog/src/main/resources/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jasmine\ICTAK\workspace_Maven\ICTAKteckBlog\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICTAKnew\ICTAK\ICTAKteckBlog\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF2A546-C202-4354-9FC9-F9F29E638C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C192905-52EC-44BC-A6B9-0E88B720E498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{5C1CFD7A-1708-4322-86A4-3D2A61FB0FD1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>AA</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>newcatgp5</t>
+  </si>
+  <si>
+    <t>NEWCAT</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -552,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8C1A2F-B7D6-4CD2-84FA-7F85451F780A}">
-  <dimension ref="C1:G36"/>
+  <dimension ref="C1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,6 +776,16 @@
         <v>1234</v>
       </c>
     </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
